--- a/TestExcel/output004Test.xlsx
+++ b/TestExcel/output004Test.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repo\albertpython\TestExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3455265-33F2-4837-8AD4-774D390E1427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -103,15 +97,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,15 +113,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -171,21 +158,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -232,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,27 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,24 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,21 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -554,7 +490,7 @@
         <v>44555</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -571,7 +507,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -588,7 +524,7 @@
         <v>44617</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -605,7 +541,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -622,7 +558,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -639,7 +575,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -656,7 +592,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -673,7 +609,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -690,7 +626,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -707,7 +643,7 @@
         <v>44829</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -724,7 +660,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -741,7 +677,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -758,7 +694,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -775,7 +711,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -792,7 +728,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -809,7 +745,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -826,7 +762,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -843,7 +779,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -860,7 +796,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -878,8 +814,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>